--- a/template/Book1.xlsx
+++ b/template/Book1.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
-    <t>Jenis Sawah</t>
-  </si>
-  <si>
     <t>Sawah Irigasi</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Kabupaten/Kota</t>
+  </si>
+  <si>
+    <t>Luas Sawah Berdasarkan Jenis Sawah</t>
   </si>
 </sst>
 </file>
@@ -95,10 +95,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +383,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,78 +400,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="I7">
-        <v>65</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
